--- a/Assets/ArtRes/Excels/Bag.xlsx
+++ b/Assets/ArtRes/Excels/Bag.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity3D\UnityExercises\UnityExercise_Backpack\Assets\ArtRes\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\UnityExercise_HMR_xLua\Assets\ArtRes\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6039DA-59EA-4C6A-A356-5CD6B327040A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7901585A-B3E3-4D9B-940E-45A3E97AF0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="3000" windowWidth="13020" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,6 +97,28 @@
   <si>
     <t>回复HP</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_5</t>
+  </si>
+  <si>
+    <t>Icon_6</t>
   </si>
 </sst>
 </file>
@@ -424,10 +446,18 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="A1:XFD1048576"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -456,11 +486,11 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
         <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -476,11 +506,11 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>2</v>
+      <c r="C3" t="s">
+        <v>19</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>150</v>
@@ -496,11 +526,11 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>3</v>
+      <c r="C4" t="s">
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -516,11 +546,11 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
-        <v>4</v>
+      <c r="C5" t="s">
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -536,8 +566,8 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
-        <v>5</v>
+      <c r="C6" t="s">
+        <v>22</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -556,8 +586,8 @@
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
-        <v>6</v>
+      <c r="C7" t="s">
+        <v>23</v>
       </c>
       <c r="D7">
         <v>3</v>
